--- a/1_DEBARRENECHEA/DEBA.xlsx
+++ b/1_DEBARRENECHEA/DEBA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d18bcd00a3430d46/OFICINA/SUELDOS/2025/02/1_DEBARRENECHEA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\marzo\1_DEBARRENECHEA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="446" documentId="13_ncr:1_{7DE68530-F035-47C6-A588-7C6372BCF351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2C09BD6-18DA-4057-8D64-09ACBC68BCF7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E8F1EF-3C88-4971-BCCE-169235A33437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20520" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
     <t>BONO</t>
   </si>
   <si>
-    <t>FEBRERO 2025</t>
+    <t>MARZO 2025</t>
   </si>
 </sst>
 </file>
@@ -498,8 +498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,7 +538,7 @@
       <c r="H4" s="1"/>
       <c r="K4" s="15">
         <f>+K6+20000</f>
-        <v>579191.65999999992</v>
+        <v>637096.12999999989</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
@@ -580,15 +580,15 @@
         <v>7</v>
       </c>
       <c r="C6" s="6">
-        <v>454992.73</v>
+        <v>533741.69999999995</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="11">
         <f>+C6+D6</f>
-        <v>454992.73</v>
+        <v>533741.69999999995</v>
       </c>
       <c r="F6" s="6">
-        <v>104198.93</v>
+        <v>83354.429999999993</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
@@ -601,23 +601,23 @@
       </c>
       <c r="J6" s="11">
         <f>+F6+G6+H6+I6</f>
-        <v>104198.93</v>
+        <v>83354.429999999993</v>
       </c>
       <c r="K6" s="6">
         <f>+E6+J6</f>
-        <v>559191.65999999992</v>
+        <v>617096.12999999989</v>
       </c>
       <c r="L6" s="6">
         <f>+K6*2</f>
-        <v>1118383.3199999998</v>
+        <v>1234192.2599999998</v>
       </c>
       <c r="M6" s="6">
         <f>+E6+F6+G6+H6</f>
-        <v>559191.65999999992</v>
+        <v>617096.12999999989</v>
       </c>
       <c r="N6" s="9">
         <f>+M6*2</f>
-        <v>1118383.3199999998</v>
+        <v>1234192.2599999998</v>
       </c>
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
@@ -628,15 +628,15 @@
         <v>6</v>
       </c>
       <c r="C7" s="6">
-        <v>454992.73</v>
+        <v>533741.69999999995</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="11">
         <f>+C7+D7</f>
-        <v>454992.73</v>
+        <v>533741.69999999995</v>
       </c>
       <c r="F7" s="6">
-        <v>104198.93</v>
+        <v>83354.429999999993</v>
       </c>
       <c r="G7" s="6">
         <v>0</v>
@@ -649,23 +649,23 @@
       </c>
       <c r="J7" s="11">
         <f>+F7+G7+H7+I7</f>
-        <v>104198.93</v>
+        <v>83354.429999999993</v>
       </c>
       <c r="K7" s="6">
         <f>+E7+J7</f>
-        <v>559191.65999999992</v>
+        <v>617096.12999999989</v>
       </c>
       <c r="L7" s="6">
         <f>+K7*2</f>
-        <v>1118383.3199999998</v>
+        <v>1234192.2599999998</v>
       </c>
       <c r="M7" s="6">
         <f>+E7+F7+G7+H7</f>
-        <v>559191.65999999992</v>
+        <v>617096.12999999989</v>
       </c>
       <c r="N7" s="9">
         <f>+M7*2</f>
-        <v>1118383.3199999998</v>
+        <v>1234192.2599999998</v>
       </c>
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
@@ -695,7 +695,7 @@
       <c r="B9" s="7"/>
       <c r="C9" s="8">
         <f>SUM(C6:C8)</f>
-        <v>909985.46</v>
+        <v>1067483.3999999999</v>
       </c>
       <c r="D9" s="8">
         <f>SUM(D6:D8)</f>
@@ -703,11 +703,11 @@
       </c>
       <c r="E9" s="11">
         <f>+C9+D9</f>
-        <v>909985.46</v>
+        <v>1067483.3999999999</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" ref="F9:K9" si="0">SUM(F6:F8)</f>
-        <v>208397.86</v>
+        <v>166708.85999999999</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -717,23 +717,23 @@
       </c>
       <c r="J9" s="12">
         <f>SUM(J6:J8)</f>
-        <v>208397.86</v>
+        <v>166708.85999999999</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" si="0"/>
-        <v>1118383.3199999998</v>
+        <v>1234192.2599999998</v>
       </c>
       <c r="L9" s="8">
         <f>SUM(L6:L8)</f>
-        <v>2236766.6399999997</v>
+        <v>2468384.5199999996</v>
       </c>
       <c r="M9" s="8">
         <f>SUM(M6:M8)</f>
-        <v>1118383.3199999998</v>
+        <v>1234192.2599999998</v>
       </c>
       <c r="N9" s="8">
         <f>SUM(N6:N8)</f>
-        <v>2236766.6399999997</v>
+        <v>2468384.5199999996</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -779,7 +779,9 @@
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
+      <c r="K14" s="14">
+        <v>1223425.3700000001</v>
+      </c>
       <c r="L14" s="14"/>
       <c r="M14" s="14"/>
       <c r="N14" s="14"/>
